--- a/量化/广发基金/牛熊市分类/牛熊市指标数据.xlsx
+++ b/量化/广发基金/牛熊市分类/牛熊市指标数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AureDi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AureDi/Desktop/证券分析/量化/广发基金/牛熊市分类/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>成交额</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>月份</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PE/PB</t>
   </si>
 </sst>
 </file>
@@ -752,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,13 +769,13 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -786,19 +792,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -815,19 +827,25 @@
         <v>15.160600000000001</v>
       </c>
       <c r="F2" s="1">
+        <v>1.8327159881591699</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8.2743323505444497</v>
+      </c>
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>873.82500000000005</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>1053.01</v>
       </c>
-      <c r="I2" s="1">
-        <v>1.03801016378712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>1.06414957672055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,19 +862,25 @@
         <v>15.7539</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>1.9023185968398999</v>
       </c>
       <c r="G3" s="1">
+        <v>8.2892894104170303</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
         <v>923.45100000000002</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>1061.088</v>
       </c>
-      <c r="I3" s="1">
-        <v>1.0281761117744399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <v>1.04739987011888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -873,19 +897,25 @@
         <v>15.6896</v>
       </c>
       <c r="F4" s="1">
+        <v>1.8358449935912999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.5471913842068297</v>
+      </c>
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>1009.597</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>1172.347</v>
       </c>
-      <c r="I4" s="1">
-        <v>1.0303425257368799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <v>1.05108065172215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -902,19 +932,25 @@
         <v>18.1189</v>
       </c>
       <c r="F5" s="1">
+        <v>1.9248849153518599</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.19445956411381</v>
+      </c>
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>1053.01</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>1365.451</v>
       </c>
-      <c r="I5" s="1">
-        <v>1.05334035962937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <v>1.0904720571078399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -931,19 +967,25 @@
         <v>20.084099999999999</v>
       </c>
       <c r="F6" s="1">
+        <v>2.1515014171600302</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.3505012327612</v>
+      </c>
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>1061.088</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>1393.963</v>
       </c>
-      <c r="I6" s="1">
-        <v>1.05608766144368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="1">
+        <v>1.09521642369525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -960,19 +1002,25 @@
         <v>20.317399999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2.19985008239746</v>
       </c>
       <c r="G7" s="1">
+        <v>9.2593069783371096</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
         <v>1172.347</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>1294.328</v>
       </c>
-      <c r="I7" s="1">
-        <v>1.0199940396776199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="1">
+        <v>1.0335449991251799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,19 +1037,25 @@
         <v>20.3354</v>
       </c>
       <c r="F8" s="1">
+        <v>2.12999391555786</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.56610784027745</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>1365.451</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>1338.694</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.99604976973617199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="1">
+        <v>0.99342495576980605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1018,19 +1072,25 @@
         <v>19.986499999999999</v>
       </c>
       <c r="F9" s="1">
+        <v>2.1276290416717498</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9.4102013206523605</v>
+      </c>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>1393.963</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>1403.2650000000001</v>
       </c>
-      <c r="I9" s="1">
-        <v>1.00133106399878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="1">
+        <v>1.0022194241476701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1047,19 +1107,25 @@
         <v>21.101199999999999</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2.25034379959106</v>
       </c>
       <c r="G10" s="1">
+        <v>9.3897548223650293</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
         <v>1294.328</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>1464.473</v>
       </c>
-      <c r="I10" s="1">
-        <v>1.0250083530234599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="1">
+        <v>1.0420270851442199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1076,19 +1142,25 @@
         <v>19.682200000000002</v>
       </c>
       <c r="F11" s="1">
+        <v>2.1946821212768501</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.9681391879601495</v>
+      </c>
+      <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>1338.694</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>1714.3579999999999</v>
       </c>
-      <c r="I11" s="1">
-        <v>1.05071284196668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <v>1.0859422589641301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1105,19 +1177,25 @@
         <v>24.576000000000001</v>
       </c>
       <c r="F12" s="1">
+        <v>2.5809872150421098</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.5219535086086502</v>
+      </c>
+      <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>1403.2650000000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>2041.047</v>
       </c>
-      <c r="I12" s="1">
-        <v>1.0778111261113399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="1">
+        <v>1.13302050790048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1134,19 +1212,25 @@
         <v>32.317900000000002</v>
       </c>
       <c r="F13" s="1">
+        <v>3.3613364696502601</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.6146078860914397</v>
+      </c>
+      <c r="H13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>1464.473</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>2385.335</v>
       </c>
-      <c r="I13" s="1">
-        <v>1.1024873176204899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <v>1.17658327457672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1163,19 +1247,25 @@
         <v>36.254800000000003</v>
       </c>
       <c r="F14" s="1">
+        <v>3.7994506359100302</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.5421240808027008</v>
+      </c>
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>1714.3579999999999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>2544.5709999999999</v>
       </c>
-      <c r="I14" s="1">
-        <v>1.0821877435776901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="1">
+        <v>1.14069888831722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1192,19 +1282,25 @@
         <v>36.539700000000003</v>
       </c>
       <c r="F15" s="1">
+        <v>3.8792057037353498</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.4193894152926898</v>
+      </c>
+      <c r="H15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>2041.047</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>2781.7840000000001</v>
       </c>
-      <c r="I15" s="1">
-        <v>1.06388351591466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="1">
+        <v>1.1087240456074601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1221,19 +1317,25 @@
         <v>37.100499999999997</v>
       </c>
       <c r="F16" s="1">
+        <v>4.1825590133666903</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8.9632629087374394</v>
+      </c>
+      <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>2385.335</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>3558.7089999999998</v>
       </c>
-      <c r="I16" s="1">
-        <v>1.083299690849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="1">
+        <v>1.1426530030259401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1250,19 +1352,25 @@
         <v>35.637500000000003</v>
       </c>
       <c r="F17" s="1">
+        <v>4.5852022171020499</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7.7722896720898502</v>
+      </c>
+      <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>2544.5709999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>3927.9520000000002</v>
       </c>
-      <c r="I17" s="1">
-        <v>1.0907125738185099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="1">
+        <v>1.15571442225603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1279,19 +1387,25 @@
         <v>40.119300000000003</v>
       </c>
       <c r="F18" s="1">
+        <v>4.9822130203246999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.0524992300299196</v>
+      </c>
+      <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>2781.7840000000001</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <v>3764.078</v>
       </c>
-      <c r="I18" s="1">
-        <v>1.06234858043439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="1">
+        <v>1.10605927815278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1308,19 +1422,25 @@
         <v>37.189500000000002</v>
       </c>
       <c r="F19" s="1">
+        <v>4.7701969146728498</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.9671645694028301</v>
+      </c>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>3558.7089999999998</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
         <v>4460.5640000000003</v>
       </c>
-      <c r="I19" s="1">
-        <v>1.04621142812759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="1">
+        <v>1.07819943383199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1337,19 +1457,25 @@
         <v>44.0946</v>
       </c>
       <c r="F20" s="1">
+        <v>5.5861144065856898</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.8936079094277201</v>
+      </c>
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>3927.9520000000002</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>5296.8130000000001</v>
       </c>
-      <c r="I20" s="1">
-        <v>1.0616214717777801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="1">
+        <v>1.1047978563735099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1366,19 +1492,25 @@
         <v>42.939399999999999</v>
       </c>
       <c r="F21" s="1">
+        <v>6.3865504264831499</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.7234056469049603</v>
+      </c>
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>3764.078</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>5580.8130000000001</v>
       </c>
-      <c r="I21" s="1">
-        <v>1.0819514449198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="1">
+        <v>1.1402837939881401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1395,19 +1527,25 @@
         <v>46.065399999999997</v>
       </c>
       <c r="F22" s="1">
+        <v>6.73296642303466</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6.8417659025949904</v>
+      </c>
+      <c r="H22" s="1">
         <v>2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>4460.5640000000003</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>5688.5429999999997</v>
       </c>
-      <c r="I22" s="1">
-        <v>1.0498379168284999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="1">
+        <v>1.0844355763918601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1424,19 +1562,25 @@
         <v>47.787799999999997</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>7.0682625770568803</v>
       </c>
       <c r="G23" s="1">
+        <v>6.7608917117271599</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>5296.8130000000001</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>4737.4080000000004</v>
       </c>
-      <c r="I23" s="1">
-        <v>0.97792428157349998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <v>0.96347854795645205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1453,19 +1597,25 @@
         <v>40.532699999999998</v>
       </c>
       <c r="F24" s="1">
+        <v>6.3022589683532697</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.4314563402095501</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>5580.8130000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
         <v>5338.2749999999996</v>
       </c>
-      <c r="I24" s="1">
-        <v>0.99115298764822701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="1">
+        <v>0.98529850541067798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1482,19 +1632,25 @@
         <v>43.406100000000002</v>
       </c>
       <c r="F25" s="1">
+        <v>6.7280135154724103</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6.4514815268141996</v>
+      </c>
+      <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>5688.5429999999997</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J25" s="1">
         <v>4620.4009999999998</v>
       </c>
-      <c r="I25" s="1">
-        <v>0.95925865152621104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="1">
+        <v>0.93302412775064802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1511,19 +1667,25 @@
         <v>36.166899999999998</v>
       </c>
       <c r="F26" s="1">
+        <v>5.5124611854553196</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6.5609296647047799</v>
+      </c>
+      <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>4737.4080000000004</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J26" s="1">
         <v>4674.55</v>
       </c>
-      <c r="I26" s="1">
-        <v>0.99733211529240495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26" s="1">
+        <v>0.99555748088766205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1540,19 +1702,25 @@
         <v>35.513100000000001</v>
       </c>
       <c r="F27" s="1">
+        <v>5.42089748382568</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.5511441053596897</v>
+      </c>
+      <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>5338.2749999999996</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J27" s="1">
         <v>3790.53</v>
       </c>
-      <c r="I27" s="1">
-        <v>0.93381274947413195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <v>0.892139972659862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1569,19 +1737,25 @@
         <v>27.095199999999998</v>
       </c>
       <c r="F28" s="1">
+        <v>4.2544980049133301</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6.3686026372710502</v>
+      </c>
+      <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
         <v>4620.4009999999998</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J28" s="1">
         <v>3959.1190000000001</v>
       </c>
-      <c r="I28" s="1">
-        <v>0.96958028750311598</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" s="1">
+        <v>0.94981632292981699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1598,19 +1772,25 @@
         <v>27.507899999999999</v>
       </c>
       <c r="F29" s="1">
+        <v>4.4116859436035103</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6.23522542643863</v>
+      </c>
+      <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I29" s="1">
         <v>4674.55</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J29" s="1">
         <v>3611.33</v>
       </c>
-      <c r="I29" s="1">
-        <v>0.94969789029887797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K29" s="1">
+        <v>0.91757686564566998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1627,19 +1807,25 @@
         <v>25.3889</v>
       </c>
       <c r="F30" s="1">
+        <v>4.1004133224487296</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.1917873660193496</v>
+      </c>
+      <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>3790.53</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
         <v>2791.819</v>
       </c>
-      <c r="I30" s="1">
-        <v>0.94067036911911095</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K30" s="1">
+        <v>0.90308599389716504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1656,19 +1842,25 @@
         <v>20.2653</v>
       </c>
       <c r="F31" s="1">
+        <v>3.36467337608337</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6.0229707599587599</v>
+      </c>
+      <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I31" s="1">
         <v>3959.1190000000001</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
         <v>2805.21</v>
       </c>
-      <c r="I31" s="1">
-        <v>0.93341196702017903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" s="1">
+        <v>0.89150190238920302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1685,19 +1877,25 @@
         <v>20.444900000000001</v>
       </c>
       <c r="F32" s="1">
+        <v>3.3652269840240399</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6.0753514842769398</v>
+      </c>
+      <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
+      <c r="I32" s="1">
         <v>3611.33</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
         <v>2391.64</v>
       </c>
-      <c r="I32" s="1">
-        <v>0.92088569463256398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" s="1">
+        <v>0.87165149137156495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1714,19 +1912,25 @@
         <v>17.1843</v>
       </c>
       <c r="F33" s="1">
+        <v>2.87316417694091</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.9551430247174402</v>
+      </c>
+      <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="1">
+      <c r="I33" s="1">
         <v>2791.819</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
         <v>2243.6570000000002</v>
       </c>
-      <c r="I33" s="1">
-        <v>0.95722457813866202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K33" s="1">
+        <v>0.92972905226803604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1743,19 +1947,25 @@
         <v>16.290600000000001</v>
       </c>
       <c r="F34" s="1">
+        <v>2.7365608215332</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.9529289504901897</v>
+      </c>
+      <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
+      <c r="I34" s="1">
         <v>2805.21</v>
       </c>
-      <c r="H34" s="1">
+      <c r="J34" s="1">
         <v>1663.66</v>
       </c>
-      <c r="I34" s="1">
-        <v>0.90078229046399805</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" s="1">
+        <v>0.84016850789352904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1772,19 +1982,25 @@
         <v>12.511900000000001</v>
       </c>
       <c r="F35" s="1">
+        <v>1.9865145683288501</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6.2984232204190898</v>
+      </c>
+      <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="1">
+      <c r="I35" s="1">
         <v>2391.64</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J35" s="1">
         <v>1829.924</v>
       </c>
-      <c r="I35" s="1">
-        <v>0.94786709904965205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="1">
+        <v>0.91463064452819198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1801,19 +2017,25 @@
         <v>13.476599999999999</v>
       </c>
       <c r="F36" s="1">
+        <v>2.1482877731323198</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.2731631243832204</v>
+      </c>
+      <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1">
+      <c r="I36" s="1">
         <v>2243.6570000000002</v>
       </c>
-      <c r="H36" s="1">
+      <c r="J36" s="1">
         <v>1817.722</v>
       </c>
-      <c r="I36" s="1">
-        <v>0.95876947746236296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" s="1">
+        <v>0.93223126961170599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1830,19 +2052,25 @@
         <v>12.931100000000001</v>
       </c>
       <c r="F37" s="1">
+        <v>2.0559134483337398</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6.2896940158360204</v>
+      </c>
+      <c r="H37" s="1">
         <v>2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="I37" s="1">
         <v>1663.66</v>
       </c>
-      <c r="H37" s="1">
+      <c r="J37" s="1">
         <v>2032.682</v>
       </c>
-      <c r="I37" s="1">
-        <v>1.0408807416611101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <v>1.06905887237727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1859,19 +2087,25 @@
         <v>14.1678</v>
       </c>
       <c r="F38" s="1">
+        <v>2.24909496307373</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6.2993469578480097</v>
+      </c>
+      <c r="H38" s="1">
         <v>2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="I38" s="1">
         <v>1829.924</v>
       </c>
-      <c r="H38" s="1">
+      <c r="J38" s="1">
         <v>2140.489</v>
       </c>
-      <c r="I38" s="1">
-        <v>1.03184862420996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K38" s="1">
+        <v>1.05364258643366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1888,19 +2122,25 @@
         <v>14.8589</v>
       </c>
       <c r="F39" s="1">
+        <v>2.3487000465393</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.3134261724657401</v>
+      </c>
+      <c r="H39" s="1">
         <v>2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="I39" s="1">
         <v>1817.722</v>
       </c>
-      <c r="H39" s="1">
+      <c r="J39" s="1">
         <v>2507.7890000000002</v>
       </c>
-      <c r="I39" s="1">
-        <v>1.06647997665742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K39" s="1">
+        <v>1.1132375405831201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1917,19 +2157,25 @@
         <v>17.888200000000001</v>
       </c>
       <c r="F40" s="1">
+        <v>2.5828344821929901</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6.9257985157284603</v>
+      </c>
+      <c r="H40" s="1">
         <v>2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="I40" s="1">
         <v>2032.682</v>
       </c>
-      <c r="H40" s="1">
+      <c r="J40" s="1">
         <v>2622.9259999999999</v>
       </c>
-      <c r="I40" s="1">
-        <v>1.0523090837803399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K40" s="1">
+        <v>1.08869325497074</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1946,19 +2192,25 @@
         <v>22.939900000000002</v>
       </c>
       <c r="F41" s="1">
+        <v>2.6148190498352002</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8.7730183765516294</v>
+      </c>
+      <c r="H41" s="1">
         <v>2</v>
       </c>
-      <c r="G41" s="1">
+      <c r="I41" s="1">
         <v>2140.489</v>
       </c>
-      <c r="H41" s="1">
+      <c r="J41" s="1">
         <v>2759.712</v>
       </c>
-      <c r="I41" s="1">
-        <v>1.05213181276435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K41" s="1">
+        <v>1.08838760503544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1975,19 +2227,25 @@
         <v>24.319400000000002</v>
       </c>
       <c r="F42" s="1">
+        <v>2.7741158008575399</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8.7665378795984807</v>
+      </c>
+      <c r="H42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="1">
+      <c r="I42" s="1">
         <v>2507.7890000000002</v>
       </c>
-      <c r="H42" s="1">
+      <c r="J42" s="1">
         <v>3166.4740000000002</v>
       </c>
-      <c r="I42" s="1">
-        <v>1.0477483526065701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K42" s="1">
+        <v>1.0808405864378701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -2004,19 +2262,25 @@
         <v>28.022400000000001</v>
       </c>
       <c r="F43" s="1">
+        <v>3.2974703311920099</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8.4981385830672593</v>
+      </c>
+      <c r="H43" s="1">
         <v>2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="I43" s="1">
         <v>2622.9259999999999</v>
       </c>
-      <c r="H43" s="1">
+      <c r="J43" s="1">
         <v>3734.6219999999998</v>
       </c>
-      <c r="I43" s="1">
-        <v>1.0732283161720599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="1">
+        <v>1.1250026299377101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2033,19 +2297,25 @@
         <v>31.4588</v>
       </c>
       <c r="F44" s="1">
+        <v>3.84290218353271</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8.18620425230948</v>
+      </c>
+      <c r="H44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="1">
+      <c r="I44" s="1">
         <v>2759.712</v>
       </c>
-      <c r="H44" s="1">
+      <c r="J44" s="1">
         <v>2830.2710000000002</v>
       </c>
-      <c r="I44" s="1">
-        <v>1.00506199689978</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K44" s="1">
+        <v>1.00845088895793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -2062,19 +2332,25 @@
         <v>24.560600000000001</v>
       </c>
       <c r="F45" s="1">
+        <v>2.86512994766235</v>
+      </c>
+      <c r="G45" s="1">
+        <v>8.5722538629131204</v>
+      </c>
+      <c r="H45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="1">
+      <c r="I45" s="1">
         <v>3166.4740000000002</v>
       </c>
-      <c r="H45" s="1">
+      <c r="J45" s="1">
         <v>3004.8049999999998</v>
       </c>
-      <c r="I45" s="1">
-        <v>0.98957353796921799</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K45" s="1">
+        <v>0.98268302855519196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -2091,19 +2367,25 @@
         <v>25.835100000000001</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>3.0213522911071702</v>
       </c>
       <c r="G46" s="1">
+        <v>8.5508286861203793</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
         <v>3734.6219999999998</v>
       </c>
-      <c r="H46" s="1">
+      <c r="J46" s="1">
         <v>3280.3719999999998</v>
       </c>
-      <c r="I46" s="1">
-        <v>0.97439554351146496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K46" s="1">
+        <v>0.95769116663700105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -2120,19 +2402,25 @@
         <v>26.148</v>
       </c>
       <c r="F47" s="1">
+        <v>3.10769462585449</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8.4832289650880401</v>
+      </c>
+      <c r="H47" s="1">
         <v>2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="I47" s="1">
         <v>2830.2710000000002</v>
       </c>
-      <c r="H47" s="1">
+      <c r="J47" s="1">
         <v>3511.6689999999999</v>
       </c>
-      <c r="I47" s="1">
-        <v>1.0440880147785301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K47" s="1">
+        <v>1.0745546737240601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2149,19 +2437,25 @@
         <v>27.621500000000001</v>
       </c>
       <c r="F48" s="1">
+        <v>3.2484395503997798</v>
+      </c>
+      <c r="G48" s="1">
+        <v>8.5030080492813802</v>
+      </c>
+      <c r="H48" s="1">
         <v>2</v>
       </c>
-      <c r="G48" s="1">
+      <c r="I48" s="1">
         <v>3004.8049999999998</v>
       </c>
-      <c r="H48" s="1">
+      <c r="J48" s="1">
         <v>3575.6840000000002</v>
       </c>
-      <c r="I48" s="1">
-        <v>1.0354009701812901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K48" s="1">
+        <v>1.0596951483108801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2178,19 +2472,25 @@
         <v>28.4922</v>
       </c>
       <c r="F49" s="1">
+        <v>3.3451523780822701</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8.5174460995428092</v>
+      </c>
+      <c r="H49" s="1">
         <v>1</v>
       </c>
-      <c r="G49" s="1">
+      <c r="I49" s="1">
         <v>3280.3719999999998</v>
       </c>
-      <c r="H49" s="1">
+      <c r="J49" s="1">
         <v>3204.1550000000002</v>
       </c>
-      <c r="I49" s="1">
-        <v>0.99530935051240199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K49" s="1">
+        <v>0.99219448067498095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -2207,19 +2507,25 @@
         <v>24.987500000000001</v>
       </c>
       <c r="F50" s="1">
+        <v>3.0037367343902499</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8.3201978634902201</v>
+      </c>
+      <c r="H50" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="1">
+      <c r="I50" s="1">
         <v>3511.6689999999999</v>
       </c>
-      <c r="H50" s="1">
+      <c r="J50" s="1">
         <v>3281.6660000000002</v>
       </c>
-      <c r="I50" s="1">
-        <v>0.98654332109249299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K50" s="1">
+        <v>0.97767295414363098</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -2236,19 +2542,25 @@
         <v>25.172899999999998</v>
       </c>
       <c r="F51" s="1">
+        <v>3.0338959693908598</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8.30659323059764</v>
+      </c>
+      <c r="H51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="1">
+      <c r="I51" s="1">
         <v>3575.6840000000002</v>
       </c>
-      <c r="H51" s="1">
+      <c r="J51" s="1">
         <v>3345.607</v>
       </c>
-      <c r="I51" s="1">
-        <v>0.98678640733979905</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K51" s="1">
+        <v>0.97807448807152497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -2265,19 +2577,25 @@
         <v>23.837599999999998</v>
       </c>
       <c r="F52" s="1">
+        <v>3.0089542865753098</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7.9222203231908397</v>
+      </c>
+      <c r="H52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="1">
+      <c r="I52" s="1">
         <v>3204.1550000000002</v>
       </c>
-      <c r="H52" s="1">
+      <c r="J52" s="1">
         <v>3067.3649999999998</v>
       </c>
-      <c r="I52" s="1">
-        <v>0.99131205656254595</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K52" s="1">
+        <v>0.98556206840217597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -2294,19 +2612,25 @@
         <v>17.724499999999999</v>
       </c>
       <c r="F53" s="1">
+        <v>2.6025617122650102</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6.8103893986177004</v>
+      </c>
+      <c r="H53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
+      <c r="I53" s="1">
         <v>3281.6660000000002</v>
       </c>
-      <c r="H53" s="1">
+      <c r="J53" s="1">
         <v>2773.2640000000001</v>
       </c>
-      <c r="I53" s="1">
-        <v>0.96689511775549597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K53" s="1">
+        <v>0.94543631270694095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -2323,19 +2647,25 @@
         <v>16.081800000000001</v>
       </c>
       <c r="F54" s="1">
+        <v>2.3853943347930899</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6.7417961835145697</v>
+      </c>
+      <c r="H54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
+      <c r="I54" s="1">
         <v>3345.607</v>
       </c>
-      <c r="H54" s="1">
+      <c r="J54" s="1">
         <v>2563.0700000000002</v>
       </c>
-      <c r="I54" s="1">
-        <v>0.94810646645348595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K54" s="1">
+        <v>0.915015633787719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -2352,19 +2682,25 @@
         <v>14.986499999999999</v>
       </c>
       <c r="F55" s="1">
+        <v>2.2514674663543701</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6.6563049362095299</v>
+      </c>
+      <c r="H55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
+      <c r="I55" s="1">
         <v>3067.3649999999998</v>
       </c>
-      <c r="H55" s="1">
+      <c r="J55" s="1">
         <v>2868.846</v>
       </c>
-      <c r="I55" s="1">
-        <v>0.98670733260139798</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K55" s="1">
+        <v>0.97794386385906895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -2381,19 +2717,25 @@
         <v>16.374600000000001</v>
       </c>
       <c r="F56" s="1">
+        <v>2.4276051521301198</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6.74210718913577</v>
+      </c>
+      <c r="H56" s="1">
         <v>1</v>
       </c>
-      <c r="G56" s="1">
+      <c r="I56" s="1">
         <v>2773.2640000000001</v>
       </c>
-      <c r="H56" s="1">
+      <c r="J56" s="1">
         <v>2903.1880000000001</v>
       </c>
-      <c r="I56" s="1">
-        <v>1.0091989481642201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K56" s="1">
+        <v>1.0153785438404701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -2410,19 +2752,25 @@
         <v>15.020899999999999</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>2.3323876857757502</v>
       </c>
       <c r="G57" s="1">
+        <v>6.44011807322343</v>
+      </c>
+      <c r="H57" s="1">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1">
         <v>2563.0700000000002</v>
       </c>
-      <c r="H57" s="1">
+      <c r="J57" s="1">
         <v>2935.5740000000001</v>
       </c>
-      <c r="I57" s="1">
-        <v>1.02751107839267</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K57" s="1">
+        <v>1.04627100111251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -2439,19 +2787,25 @@
         <v>15.057600000000001</v>
       </c>
       <c r="F58" s="1">
+        <v>2.3462214469909601</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6.4177878022910004</v>
+      </c>
+      <c r="H58" s="1">
         <v>2</v>
       </c>
-      <c r="G58" s="1">
+      <c r="I58" s="1">
         <v>2868.846</v>
       </c>
-      <c r="H58" s="1">
+      <c r="J58" s="1">
         <v>3379.9830000000002</v>
       </c>
-      <c r="I58" s="1">
-        <v>1.0333357528784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K58" s="1">
+        <v>1.0561746999844599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -2468,19 +2822,25 @@
         <v>16.188500000000001</v>
       </c>
       <c r="F59" s="1">
+        <v>2.5628464221954301</v>
+      </c>
+      <c r="G59" s="1">
+        <v>6.39844857697069</v>
+      </c>
+      <c r="H59" s="1">
         <v>1</v>
       </c>
-      <c r="G59" s="1">
+      <c r="I59" s="1">
         <v>2903.1880000000001</v>
       </c>
-      <c r="H59" s="1">
+      <c r="J59" s="1">
         <v>3136.9850000000001</v>
       </c>
-      <c r="I59" s="1">
-        <v>1.0156111411481299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K59" s="1">
+        <v>1.02615372812655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -2497,19 +2857,25 @@
         <v>15.1753</v>
       </c>
       <c r="F60" s="1">
+        <v>2.3217897415161102</v>
+      </c>
+      <c r="G60" s="1">
+        <v>6.5360496481313097</v>
+      </c>
+      <c r="H60" s="1">
         <v>1</v>
       </c>
-      <c r="G60" s="1">
+      <c r="I60" s="1">
         <v>2935.5740000000001</v>
       </c>
-      <c r="H60" s="1">
+      <c r="J60" s="1">
         <v>3128.261</v>
       </c>
-      <c r="I60" s="1">
-        <v>1.0127960282526101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K60" s="1">
+        <v>1.0214175507132801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -2526,19 +2892,25 @@
         <v>15.3368</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>2.3093006610870299</v>
       </c>
       <c r="G61" s="1">
+        <v>6.6413058392351196</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
         <v>3379.9830000000002</v>
       </c>
-      <c r="H61" s="1">
+      <c r="J61" s="1">
         <v>3076.5079999999998</v>
       </c>
-      <c r="I61" s="1">
-        <v>0.981360800582881</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K61" s="1">
+        <v>0.96912808084847002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2555,19 +2927,25 @@
         <v>15.3764</v>
       </c>
       <c r="F62" s="1">
+        <v>2.3590409755706698</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6.5180902387024702</v>
+      </c>
+      <c r="H62" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="1">
+      <c r="I62" s="1">
         <v>3136.9850000000001</v>
       </c>
-      <c r="H62" s="1">
+      <c r="J62" s="1">
         <v>3239.5590000000002</v>
       </c>
-      <c r="I62" s="1">
-        <v>1.0064557615494301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K62" s="1">
+        <v>1.01078273981917</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -2584,19 +2962,25 @@
         <v>15.798400000000001</v>
       </c>
       <c r="F63" s="1">
+        <v>2.4221920967102002</v>
+      </c>
+      <c r="G63" s="1">
+        <v>6.52235238069927</v>
+      </c>
+      <c r="H63" s="1">
         <v>1</v>
       </c>
-      <c r="G63" s="1">
+      <c r="I63" s="1">
         <v>3128.261</v>
       </c>
-      <c r="H63" s="1">
+      <c r="J63" s="1">
         <v>3223.288</v>
       </c>
-      <c r="I63" s="1">
-        <v>1.00600288503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K63" s="1">
+        <v>1.0100248142955699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -2613,19 +2997,25 @@
         <v>15.112399999999999</v>
       </c>
       <c r="F64" s="1">
+        <v>2.3887767791747998</v>
+      </c>
+      <c r="G64" s="1">
+        <v>6.3264074697761901</v>
+      </c>
+      <c r="H64" s="1">
         <v>1</v>
       </c>
-      <c r="G64" s="1">
+      <c r="I64" s="1">
         <v>3076.5079999999998</v>
       </c>
-      <c r="H64" s="1">
+      <c r="J64" s="1">
         <v>3192.723</v>
       </c>
-      <c r="I64" s="1">
-        <v>1.00744335912669</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K64" s="1">
+        <v>1.01243635292638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -2642,19 +3032,25 @@
         <v>14.237</v>
       </c>
       <c r="F65" s="1">
+        <v>2.2751829624175999</v>
+      </c>
+      <c r="G65" s="1">
+        <v>6.2934504924074197</v>
+      </c>
+      <c r="H65" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="1">
+      <c r="I65" s="1">
         <v>3239.5590000000002</v>
       </c>
-      <c r="H65" s="1">
+      <c r="J65" s="1">
         <v>3001.556</v>
       </c>
-      <c r="I65" s="1">
-        <v>0.98485458543223203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K65" s="1">
+        <v>0.97488529325219497</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -2671,19 +3067,25 @@
         <v>13.496499999999999</v>
       </c>
       <c r="F66" s="1">
+        <v>2.1473412513732901</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6.2852236614874197</v>
+      </c>
+      <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="G66" s="1">
+      <c r="I66" s="1">
         <v>3223.288</v>
       </c>
-      <c r="H66" s="1">
+      <c r="J66" s="1">
         <v>3044.0889999999999</v>
       </c>
-      <c r="I66" s="1">
-        <v>0.98862513278171205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K66" s="1">
+        <v>0.98111386116798505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -2700,19 +3102,25 @@
         <v>13.5748</v>
       </c>
       <c r="F67" s="1">
+        <v>2.2325568199157702</v>
+      </c>
+      <c r="G67" s="1">
+        <v>6.0803620495552</v>
+      </c>
+      <c r="H67" s="1">
         <v>1</v>
       </c>
-      <c r="G67" s="1">
+      <c r="I67" s="1">
         <v>3192.723</v>
       </c>
-      <c r="H67" s="1">
+      <c r="J67" s="1">
         <v>2972.0790000000002</v>
       </c>
-      <c r="I67" s="1">
-        <v>0.98577958898262497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K67" s="1">
+        <v>0.97641183782168905</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -2729,19 +3137,25 @@
         <v>13.289400000000001</v>
       </c>
       <c r="F68" s="1">
+        <v>2.19004774093627</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6.0700430210959899</v>
+      </c>
+      <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="G68" s="1">
+      <c r="I68" s="1">
         <v>3001.556</v>
       </c>
-      <c r="H68" s="1">
+      <c r="J68" s="1">
         <v>2846.7759999999998</v>
       </c>
-      <c r="I68" s="1">
-        <v>0.98946712435182005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K68" s="1">
+        <v>0.98250691378886401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
@@ -2758,19 +3172,25 @@
         <v>12.119400000000001</v>
       </c>
       <c r="F69" s="1">
+        <v>2.00767827033996</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.0365240268368296</v>
+      </c>
+      <c r="H69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="1">
+      <c r="I69" s="1">
         <v>3044.0889999999999</v>
       </c>
-      <c r="H69" s="1">
+      <c r="J69" s="1">
         <v>2581.3510000000001</v>
       </c>
-      <c r="I69" s="1">
-        <v>0.967560083279843</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K69" s="1">
+        <v>0.94652024044763206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2787,19 +3207,25 @@
         <v>11.2501</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>1.87053835391998</v>
       </c>
       <c r="G70" s="1">
+        <v>6.0143617959937199</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
         <v>2972.0790000000002</v>
       </c>
-      <c r="H70" s="1">
+      <c r="J70" s="1">
         <v>2695.3069999999998</v>
       </c>
-      <c r="I70" s="1">
-        <v>0.98063994132333698</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K70" s="1">
+        <v>0.96794191519835104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
@@ -2816,19 +3242,25 @@
         <v>11.458</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>1.89444327354431</v>
       </c>
       <c r="G71" s="1">
+        <v>6.04821346835356</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
         <v>2846.7759999999998</v>
       </c>
-      <c r="H71" s="1">
+      <c r="J71" s="1">
         <v>2521.52</v>
       </c>
-      <c r="I71" s="1">
-        <v>0.97602698311222302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K71" s="1">
+        <v>0.96036511003998504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
@@ -2845,19 +3277,25 @@
         <v>10.849399999999999</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>1.7930597066879199</v>
       </c>
       <c r="G72" s="1">
+        <v>6.0507796047874898</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
         <v>2581.3510000000001</v>
       </c>
-      <c r="H72" s="1">
+      <c r="J72" s="1">
         <v>2345.7420000000002</v>
       </c>
-      <c r="I72" s="1">
-        <v>0.98103982186471905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K72" s="1">
+        <v>0.96859984228194296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -2874,19 +3312,25 @@
         <v>10.448600000000001</v>
       </c>
       <c r="F73" s="1">
+        <v>1.7181596755981401</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.0810958575638203</v>
+      </c>
+      <c r="H73" s="1">
         <v>1</v>
       </c>
-      <c r="G73" s="1">
+      <c r="I73" s="1">
         <v>2695.3069999999998</v>
       </c>
-      <c r="H73" s="1">
+      <c r="J73" s="1">
         <v>2464.2600000000002</v>
       </c>
-      <c r="I73" s="1">
-        <v>0.98223557080886703</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K73" s="1">
+        <v>0.97056828554458996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
@@ -2903,19 +3347,25 @@
         <v>10.984400000000001</v>
       </c>
       <c r="F74" s="1">
+        <v>1.8158597946166899</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6.0491668623005301</v>
+      </c>
+      <c r="H74" s="1">
         <v>1</v>
       </c>
-      <c r="G74" s="1">
+      <c r="I74" s="1">
         <v>2521.52</v>
       </c>
-      <c r="H74" s="1">
+      <c r="J74" s="1">
         <v>2634.143</v>
       </c>
-      <c r="I74" s="1">
-        <v>1.00877749781046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K74" s="1">
+        <v>1.01467192387689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2932,19 +3382,25 @@
         <v>11.528700000000001</v>
       </c>
       <c r="F75" s="1">
+        <v>1.90186059474945</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6.0617846487421296</v>
+      </c>
+      <c r="H75" s="1">
         <v>1</v>
       </c>
-      <c r="G75" s="1">
+      <c r="I75" s="1">
         <v>2345.7420000000002</v>
       </c>
-      <c r="H75" s="1">
+      <c r="J75" s="1">
         <v>2454.8989999999999</v>
       </c>
-      <c r="I75" s="1">
-        <v>1.00913827138205</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K75" s="1">
+        <v>1.0152767986756699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -2961,19 +3417,25 @@
         <v>10.912000000000001</v>
       </c>
       <c r="F76" s="1">
+        <v>1.7273694276809599</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6.3266109394436496</v>
+      </c>
+      <c r="H76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1">
+      <c r="I76" s="1">
         <v>2464.2600000000002</v>
       </c>
-      <c r="H76" s="1">
+      <c r="J76" s="1">
         <v>2626.1570000000002</v>
       </c>
-      <c r="I76" s="1">
-        <v>1.0128073203863399</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K76" s="1">
+        <v>1.0214365312156499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -2990,19 +3452,25 @@
         <v>11.379799999999999</v>
       </c>
       <c r="F77" s="1">
+        <v>1.77211165428161</v>
+      </c>
+      <c r="G77" s="1">
+        <v>6.5113753611538003</v>
+      </c>
+      <c r="H77" s="1">
         <v>1</v>
       </c>
-      <c r="G77" s="1">
+      <c r="I77" s="1">
         <v>2634.143</v>
       </c>
-      <c r="H77" s="1">
+      <c r="J77" s="1">
         <v>2632.0419999999999</v>
       </c>
-      <c r="I77" s="1">
-        <v>0.99984042850927901</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K77" s="1">
+        <v>0.99973406166186096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -3019,19 +3487,25 @@
         <v>11.199299999999999</v>
       </c>
       <c r="F78" s="1">
+        <v>1.70936262607574</v>
+      </c>
+      <c r="G78" s="1">
+        <v>6.55171117609083</v>
+      </c>
+      <c r="H78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1">
+      <c r="I78" s="1">
         <v>2454.8989999999999</v>
       </c>
-      <c r="H78" s="1">
+      <c r="J78" s="1">
         <v>2461.6120000000001</v>
       </c>
-      <c r="I78" s="1">
-        <v>1.0005463091767799</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K78" s="1">
+        <v>1.0009106810921999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -3048,19 +3522,25 @@
         <v>10.536300000000001</v>
       </c>
       <c r="F79" s="1">
-        <v>1</v>
+        <v>1.6586618423461901</v>
       </c>
       <c r="G79" s="1">
+        <v>6.3522972482697799</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
         <v>2626.1570000000002</v>
       </c>
-      <c r="H79" s="1">
+      <c r="J79" s="1">
         <v>2332.922</v>
       </c>
-      <c r="I79" s="1">
-        <v>0.97659817084247103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K79" s="1">
+        <v>0.96130199630895197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -3077,19 +3557,25 @@
         <v>10.2118</v>
       </c>
       <c r="F80" s="1">
+        <v>1.6088608503341599</v>
+      </c>
+      <c r="G80" s="1">
+        <v>6.3472242320616497</v>
+      </c>
+      <c r="H80" s="1">
         <v>0</v>
       </c>
-      <c r="G80" s="1">
+      <c r="I80" s="1">
         <v>2632.0419999999999</v>
       </c>
-      <c r="H80" s="1">
+      <c r="J80" s="1">
         <v>2204.8679999999999</v>
       </c>
-      <c r="I80" s="1">
-        <v>0.96520142821426302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K80" s="1">
+        <v>0.942677756979029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -3106,19 +3592,25 @@
         <v>9.8055000000000003</v>
       </c>
       <c r="F81" s="1">
+        <v>1.48024713993072</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6.6242181719843201</v>
+      </c>
+      <c r="H81" s="1">
         <v>1</v>
       </c>
-      <c r="G81" s="1">
+      <c r="I81" s="1">
         <v>2461.6120000000001</v>
       </c>
-      <c r="H81" s="1">
+      <c r="J81" s="1">
         <v>2293.1060000000002</v>
       </c>
-      <c r="I81" s="1">
-        <v>0.98591825067066097</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K81" s="1">
+        <v>0.97664075522402105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3135,19 +3627,25 @@
         <v>10.028499999999999</v>
       </c>
       <c r="F82" s="1">
+        <v>1.5191788673400799</v>
+      </c>
+      <c r="G82" s="1">
+        <v>6.6012896000532297</v>
+      </c>
+      <c r="H82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" s="1">
+      <c r="I82" s="1">
         <v>2332.922</v>
       </c>
-      <c r="H82" s="1">
+      <c r="J82" s="1">
         <v>2254.8200000000002</v>
       </c>
-      <c r="I82" s="1">
-        <v>0.99321285502313705</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K82" s="1">
+        <v>0.98871370290239802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -3164,19 +3662,25 @@
         <v>9.9389000000000003</v>
       </c>
       <c r="F83" s="1">
+        <v>1.4557911157607999</v>
+      </c>
+      <c r="G83" s="1">
+        <v>6.8271241029667298</v>
+      </c>
+      <c r="H83" s="1">
         <v>1</v>
       </c>
-      <c r="G83" s="1">
+      <c r="I83" s="1">
         <v>2204.8679999999999</v>
       </c>
-      <c r="H83" s="1">
+      <c r="J83" s="1">
         <v>2139.6610000000001</v>
       </c>
-      <c r="I83" s="1">
-        <v>0.99401394069665805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K83" s="1">
+        <v>0.99004315493152495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -3193,19 +3697,25 @@
         <v>9.6202000000000005</v>
       </c>
       <c r="F84" s="1">
-        <v>1</v>
+        <v>1.4078458547592101</v>
       </c>
       <c r="G84" s="1">
+        <v>6.8332955824142596</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1">
         <v>2293.1060000000002</v>
       </c>
-      <c r="H84" s="1">
+      <c r="J84" s="1">
         <v>2522.9520000000002</v>
       </c>
-      <c r="I84" s="1">
-        <v>1.0192881411433801</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K84" s="1">
+        <v>1.03235314643716</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -3222,19 +3732,25 @@
         <v>11.004799999999999</v>
       </c>
       <c r="F85" s="1">
+        <v>1.60969030857086</v>
+      </c>
+      <c r="G85" s="1">
+        <v>6.83657253714546</v>
+      </c>
+      <c r="H85" s="1">
         <v>2</v>
       </c>
-      <c r="G85" s="1">
+      <c r="I85" s="1">
         <v>2254.8200000000002</v>
       </c>
-      <c r="H85" s="1">
+      <c r="J85" s="1">
         <v>2686.8820000000001</v>
       </c>
-      <c r="I85" s="1">
-        <v>1.03568418152387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K85" s="1">
+        <v>1.0601782864976701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -3251,19 +3767,25 @@
         <v>11.491099999999999</v>
       </c>
       <c r="F86" s="1">
+        <v>1.69466435909271</v>
+      </c>
+      <c r="G86" s="1">
+        <v>6.7807585533778196</v>
+      </c>
+      <c r="H86" s="1">
         <v>2</v>
       </c>
-      <c r="G86" s="1">
+      <c r="I86" s="1">
         <v>2139.6610000000001</v>
       </c>
-      <c r="H86" s="1">
+      <c r="J86" s="1">
         <v>2673.3270000000002</v>
       </c>
-      <c r="I86" s="1">
-        <v>1.0455418541739301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K86" s="1">
+        <v>1.07704960213918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -3280,19 +3802,25 @@
         <v>11.289899999999999</v>
       </c>
       <c r="F87" s="1">
+        <v>1.6597722768783501</v>
+      </c>
+      <c r="G87" s="1">
+        <v>6.8020643848649698</v>
+      </c>
+      <c r="H87" s="1">
         <v>1</v>
       </c>
-      <c r="G87" s="1">
+      <c r="I87" s="1">
         <v>2522.9520000000002</v>
       </c>
-      <c r="H87" s="1">
+      <c r="J87" s="1">
         <v>2495.0830000000001</v>
       </c>
-      <c r="I87" s="1">
-        <v>0.997780935906316</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K87" s="1">
+        <v>0.99630429621079597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -3309,19 +3837,25 @@
         <v>10.5101</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
+        <v>1.5262744426727199</v>
       </c>
       <c r="G88" s="1">
+        <v>6.8829964232709004</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
         <v>2686.8820000000001</v>
       </c>
-      <c r="H88" s="1">
+      <c r="J88" s="1">
         <v>2447.306</v>
       </c>
-      <c r="I88" s="1">
-        <v>0.98149464898088301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K88" s="1">
+        <v>0.96934839081376301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -3338,19 +3872,25 @@
         <v>10.0329</v>
       </c>
       <c r="F89" s="1">
+        <v>1.4600514173507599</v>
+      </c>
+      <c r="G89" s="1">
+        <v>6.9652429795753497</v>
+      </c>
+      <c r="H89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="1">
+      <c r="I89" s="1">
         <v>2673.3270000000002</v>
       </c>
-      <c r="H89" s="1">
+      <c r="J89" s="1">
         <v>2606.4259999999999</v>
       </c>
-      <c r="I89" s="1">
-        <v>0.99494405854308998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K89" s="1">
+        <v>0.99158764030991497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -3367,19 +3907,25 @@
         <v>10.4946</v>
       </c>
       <c r="F90" s="1">
-        <v>1</v>
+        <v>1.4942539930343599</v>
       </c>
       <c r="G90" s="1">
+        <v>7.02328182915425</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
         <v>2495.0830000000001</v>
       </c>
-      <c r="H90" s="1">
+      <c r="J90" s="1">
         <v>2200.6390000000001</v>
       </c>
-      <c r="I90" s="1">
-        <v>0.97519790949098795</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K90" s="1">
+        <v>0.959005878639696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -3396,19 +3942,25 @@
         <v>9.0465</v>
       </c>
       <c r="F91" s="1">
-        <v>1</v>
+        <v>1.3273335695266699</v>
       </c>
       <c r="G91" s="1">
+        <v>6.8155812560998497</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
         <v>2447.306</v>
       </c>
-      <c r="H91" s="1">
+      <c r="J91" s="1">
         <v>2193.0210000000002</v>
       </c>
-      <c r="I91" s="1">
-        <v>0.97829740852230396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K91" s="1">
+        <v>0.96409131784407698</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -3425,19 +3977,25 @@
         <v>9.0578000000000003</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
+        <v>1.36014580726623</v>
       </c>
       <c r="G92" s="1">
+        <v>6.6594613544755203</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
         <v>2606.4259999999999</v>
       </c>
-      <c r="H92" s="1">
+      <c r="J92" s="1">
         <v>2313.91</v>
       </c>
-      <c r="I92" s="1">
-        <v>0.97647294026911502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K92" s="1">
+        <v>0.96109655655218695</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -3454,19 +4012,25 @@
         <v>9.1138999999999992</v>
       </c>
       <c r="F93" s="1">
-        <v>1</v>
+        <v>1.35847043991088</v>
       </c>
       <c r="G93" s="1">
+        <v>6.7208088401249704</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1">
         <v>2200.6390000000001</v>
       </c>
-      <c r="H93" s="1">
+      <c r="J93" s="1">
         <v>2409.0369999999998</v>
       </c>
-      <c r="I93" s="1">
-        <v>1.0182605841766399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K93" s="1">
+        <v>1.0306191827751401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -3483,19 +4047,25 @@
         <v>9.4067000000000007</v>
       </c>
       <c r="F94" s="1">
+        <v>1.40197873115539</v>
+      </c>
+      <c r="G94" s="1">
+        <v>6.7095631619000597</v>
+      </c>
+      <c r="H94" s="1">
         <v>1</v>
       </c>
-      <c r="G94" s="1">
+      <c r="I94" s="1">
         <v>2193.0210000000002</v>
       </c>
-      <c r="H94" s="1">
+      <c r="J94" s="1">
         <v>2373.7179999999998</v>
       </c>
-      <c r="I94" s="1">
-        <v>1.0159615372397099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K94" s="1">
+        <v>1.02674385163311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -3512,19 +4082,25 @@
         <v>8.9672999999999998</v>
       </c>
       <c r="F95" s="1">
+        <v>1.33908939361572</v>
+      </c>
+      <c r="G95" s="1">
+        <v>6.6965502653943298</v>
+      </c>
+      <c r="H95" s="1">
         <v>1</v>
       </c>
-      <c r="G95" s="1">
+      <c r="I95" s="1">
         <v>2313.91</v>
       </c>
-      <c r="H95" s="1">
+      <c r="J95" s="1">
         <v>2438.944</v>
       </c>
-      <c r="I95" s="1">
-        <v>1.01058087054127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K95" s="1">
+        <v>1.0176969084929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -3541,19 +4117,25 @@
         <v>9.2222000000000008</v>
       </c>
       <c r="F96" s="1">
+        <v>1.3769738674163801</v>
+      </c>
+      <c r="G96" s="1">
+        <v>6.6974410811838396</v>
+      </c>
+      <c r="H96" s="1">
         <v>1</v>
       </c>
-      <c r="G96" s="1">
+      <c r="I96" s="1">
         <v>2409.0369999999998</v>
       </c>
-      <c r="H96" s="1">
+      <c r="J96" s="1">
         <v>2330.0259999999998</v>
       </c>
-      <c r="I96" s="1">
-        <v>0.99335266070524997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K96" s="1">
+        <v>0.98894566774683201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -3570,19 +4152,25 @@
         <v>8.9216999999999995</v>
       </c>
       <c r="F97" s="1">
+        <v>1.3400082588195801</v>
+      </c>
+      <c r="G97" s="1">
+        <v>6.6579557832340104</v>
+      </c>
+      <c r="H97" s="1">
         <v>1</v>
       </c>
-      <c r="G97" s="1">
+      <c r="I97" s="1">
         <v>2373.7179999999998</v>
       </c>
-      <c r="H97" s="1">
+      <c r="J97" s="1">
         <v>2202.4499999999998</v>
       </c>
-      <c r="I97" s="1">
-        <v>0.98513417872081199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K97" s="1">
+        <v>0.97534660869585899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
@@ -3599,19 +4187,25 @@
         <v>8.4765999999999995</v>
       </c>
       <c r="F98" s="1">
-        <v>1</v>
+        <v>1.26830029487609</v>
       </c>
       <c r="G98" s="1">
+        <v>6.68344550577417</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
         <v>2438.944</v>
       </c>
-      <c r="H98" s="1">
+      <c r="J98" s="1">
         <v>2178.971</v>
       </c>
-      <c r="I98" s="1">
-        <v>0.97770970091044496</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K98" s="1">
+        <v>0.96312622220618305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
@@ -3628,19 +4222,25 @@
         <v>8.4623000000000008</v>
       </c>
       <c r="F99" s="1">
+        <v>1.2680016756057699</v>
+      </c>
+      <c r="G99" s="1">
+        <v>6.6737634332380402</v>
+      </c>
+      <c r="H99" s="1">
         <v>1</v>
       </c>
-      <c r="G99" s="1">
+      <c r="I99" s="1">
         <v>2330.0259999999998</v>
       </c>
-      <c r="H99" s="1">
+      <c r="J99" s="1">
         <v>2146.3049999999998</v>
       </c>
-      <c r="I99" s="1">
-        <v>0.98370784307072001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K99" s="1">
+        <v>0.97299413706604798</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
@@ -3657,19 +4257,25 @@
         <v>8.2347999999999999</v>
       </c>
       <c r="F100" s="1">
+        <v>1.2330904006957999</v>
+      </c>
+      <c r="G100" s="1">
+        <v>6.6781921578605798</v>
+      </c>
+      <c r="H100" s="1">
         <v>1</v>
       </c>
-      <c r="G100" s="1">
+      <c r="I100" s="1">
         <v>2202.4499999999998</v>
       </c>
-      <c r="H100" s="1">
+      <c r="J100" s="1">
         <v>2158.6590000000001</v>
       </c>
-      <c r="I100" s="1">
-        <v>0.99599141958833304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K100" s="1">
+        <v>0.993327963693593</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -3686,19 +4292,25 @@
         <v>8.0989000000000004</v>
       </c>
       <c r="F101" s="1">
+        <v>1.1780376434326101</v>
+      </c>
+      <c r="G101" s="1">
+        <v>6.8749463676531697</v>
+      </c>
+      <c r="H101" s="1">
         <v>1</v>
       </c>
-      <c r="G101" s="1">
+      <c r="I101" s="1">
         <v>2178.971</v>
       </c>
-      <c r="H101" s="1">
+      <c r="J101" s="1">
         <v>2156.4639999999999</v>
       </c>
-      <c r="I101" s="1">
-        <v>0.99792557384877301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K101" s="1">
+        <v>0.99654501432373599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
@@ -3715,19 +4327,25 @@
         <v>8.1622000000000003</v>
       </c>
       <c r="F102" s="1">
+        <v>1.1870932579040501</v>
+      </c>
+      <c r="G102" s="1">
+        <v>6.8734633051015903</v>
+      </c>
+      <c r="H102" s="1">
         <v>1</v>
       </c>
-      <c r="G102" s="1">
+      <c r="I102" s="1">
         <v>2146.3049999999998</v>
       </c>
-      <c r="H102" s="1">
+      <c r="J102" s="1">
         <v>2165.1179999999999</v>
       </c>
-      <c r="I102" s="1">
-        <v>1.00174694502169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K102" s="1">
+        <v>1.0029132701610901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
@@ -3744,19 +4362,25 @@
         <v>8.26</v>
       </c>
       <c r="F103" s="1">
+        <v>1.24262511730194</v>
+      </c>
+      <c r="G103" s="1">
+        <v>6.64717977301191</v>
+      </c>
+      <c r="H103" s="1">
         <v>1</v>
       </c>
-      <c r="G103" s="1">
+      <c r="I103" s="1">
         <v>2158.6590000000001</v>
       </c>
-      <c r="H103" s="1">
+      <c r="J103" s="1">
         <v>2350.2510000000002</v>
       </c>
-      <c r="I103" s="1">
-        <v>1.0171524292252201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K103" s="1">
+        <v>1.02875051998858</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
@@ -3773,19 +4397,25 @@
         <v>8.8504000000000005</v>
       </c>
       <c r="F104" s="1">
+        <v>1.35833847522735</v>
+      </c>
+      <c r="G104" s="1">
+        <v>6.5155784303908204</v>
+      </c>
+      <c r="H104" s="1">
         <v>1</v>
       </c>
-      <c r="G104" s="1">
+      <c r="I104" s="1">
         <v>2156.4639999999999</v>
       </c>
-      <c r="H104" s="1">
+      <c r="J104" s="1">
         <v>2338.2869999999998</v>
       </c>
-      <c r="I104" s="1">
-        <v>1.01632151752438</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K104" s="1">
+        <v>1.0273502577853499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
@@ -3802,19 +4432,25 @@
         <v>8.5487000000000002</v>
       </c>
       <c r="F105" s="1">
-        <v>1</v>
+        <v>1.28510582447052</v>
       </c>
       <c r="G105" s="1">
+        <v>6.6848771303890997</v>
+      </c>
+      <c r="H105" s="1">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1">
         <v>2165.1179999999999</v>
       </c>
-      <c r="H105" s="1">
+      <c r="J105" s="1">
         <v>2450.9879999999998</v>
       </c>
-      <c r="I105" s="1">
-        <v>1.0251134291242301</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K105" s="1">
+        <v>1.0422051257817699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
@@ -3831,19 +4467,25 @@
         <v>8.8758999999999997</v>
       </c>
       <c r="F106" s="1">
+        <v>1.3356245756149201</v>
+      </c>
+      <c r="G106" s="1">
+        <v>6.6455389136284904</v>
+      </c>
+      <c r="H106" s="1">
         <v>1</v>
       </c>
-      <c r="G106" s="1">
+      <c r="I106" s="1">
         <v>2350.2510000000002</v>
       </c>
-      <c r="H106" s="1">
+      <c r="J106" s="1">
         <v>2508.3249999999998</v>
       </c>
-      <c r="I106" s="1">
-        <v>1.01310372484155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K106" s="1">
+        <v>1.02193479622983</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -3860,19 +4502,25 @@
         <v>8.9237000000000002</v>
       </c>
       <c r="F107" s="1">
+        <v>1.3059424161911</v>
+      </c>
+      <c r="G107" s="1">
+        <v>6.8331119587981304</v>
+      </c>
+      <c r="H107" s="1">
         <v>2</v>
       </c>
-      <c r="G107" s="1">
+      <c r="I107" s="1">
         <v>2338.2869999999998</v>
       </c>
-      <c r="H107" s="1">
+      <c r="J107" s="1">
         <v>2808.819</v>
       </c>
-      <c r="I107" s="1">
-        <v>1.0373497050838301</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K107" s="1">
+        <v>1.06302133186631</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -3889,19 +4537,25 @@
         <v>9.9932999999999996</v>
       </c>
       <c r="F108" s="1">
+        <v>1.46077764034271</v>
+      </c>
+      <c r="G108" s="1">
+        <v>6.8410786418779104</v>
+      </c>
+      <c r="H108" s="1">
         <v>2</v>
       </c>
-      <c r="G108" s="1">
+      <c r="I108" s="1">
         <v>2450.9879999999998</v>
       </c>
-      <c r="H108" s="1">
+      <c r="J108" s="1">
         <v>3533.7049999999999</v>
       </c>
-      <c r="I108" s="1">
-        <v>1.07591465040097</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K108" s="1">
+        <v>1.1296997570286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
@@ -3918,19 +4572,25 @@
         <v>12.9101</v>
       </c>
       <c r="F109" s="1">
+        <v>1.8878489732742301</v>
+      </c>
+      <c r="G109" s="1">
+        <v>6.8385171527033402</v>
+      </c>
+      <c r="H109" s="1">
         <v>2</v>
       </c>
-      <c r="G109" s="1">
+      <c r="I109" s="1">
         <v>2508.3249999999998</v>
       </c>
-      <c r="H109" s="1">
+      <c r="J109" s="1">
         <v>3434.39</v>
       </c>
-      <c r="I109" s="1">
-        <v>1.06486158683393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K109" s="1">
+        <v>1.11042339052397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
@@ -3947,19 +4607,25 @@
         <v>12.632899999999999</v>
       </c>
       <c r="F110" s="1">
+        <v>1.84094130992889</v>
+      </c>
+      <c r="G110" s="1">
+        <v>6.8626721539655504</v>
+      </c>
+      <c r="H110" s="1">
         <v>2</v>
       </c>
-      <c r="G110" s="1">
+      <c r="I110" s="1">
         <v>2808.819</v>
       </c>
-      <c r="H110" s="1">
+      <c r="J110" s="1">
         <v>3572.8429999999998</v>
       </c>
-      <c r="I110" s="1">
-        <v>1.04929604439772</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K110" s="1">
+        <v>1.08350285362606</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
@@ -3976,19 +4642,25 @@
         <v>12.981</v>
       </c>
       <c r="F111" s="1">
-        <v>1</v>
+        <v>1.87870109081268</v>
       </c>
       <c r="G111" s="1">
+        <v>6.9158089243777496</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1">
         <v>3533.7049999999999</v>
       </c>
-      <c r="H111" s="1">
+      <c r="J111" s="1">
         <v>4051.2040000000002</v>
       </c>
-      <c r="I111" s="1">
-        <v>1.0277104306010301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K111" s="1">
+        <v>1.0466093428388901</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -4005,19 +4677,25 @@
         <v>14.6991</v>
       </c>
       <c r="F112" s="1">
+        <v>2.03462815284729</v>
+      </c>
+      <c r="G112" s="1">
+        <v>7.2244507724474598</v>
+      </c>
+      <c r="H112" s="1">
         <v>2</v>
       </c>
-      <c r="G112" s="1">
+      <c r="I112" s="1">
         <v>3434.39</v>
       </c>
-      <c r="H112" s="1">
+      <c r="J112" s="1">
         <v>4749.8860000000004</v>
       </c>
-      <c r="I112" s="1">
-        <v>1.0670056401669199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K112" s="1">
+        <v>1.1141522076899599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
@@ -4034,19 +4712,25 @@
         <v>17.039899999999999</v>
       </c>
       <c r="F113" s="1">
+        <v>2.25775718688964</v>
+      </c>
+      <c r="G113" s="1">
+        <v>7.5472685570428597</v>
+      </c>
+      <c r="H113" s="1">
         <v>2</v>
       </c>
-      <c r="G113" s="1">
+      <c r="I113" s="1">
         <v>3572.8429999999998</v>
       </c>
-      <c r="H113" s="1">
+      <c r="J113" s="1">
         <v>4840.8289999999997</v>
       </c>
-      <c r="I113" s="1">
-        <v>1.0626277713012799</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K113" s="1">
+        <v>1.1065437843766299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -4063,19 +4747,25 @@
         <v>16.834</v>
       </c>
       <c r="F114" s="1">
-        <v>1</v>
+        <v>2.2218720912933301</v>
       </c>
       <c r="G114" s="1">
+        <v>7.5764772689350002</v>
+      </c>
+      <c r="H114" s="1">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1">
         <v>4051.2040000000002</v>
       </c>
-      <c r="H114" s="1">
+      <c r="J114" s="1">
         <v>4472.9975999999997</v>
       </c>
-      <c r="I114" s="1">
-        <v>1.020006432248</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K114" s="1">
+        <v>1.0335659278929299</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
@@ -4092,19 +4782,25 @@
         <v>16.552299999999999</v>
       </c>
       <c r="F115" s="1">
+        <v>2.17809581756591</v>
+      </c>
+      <c r="G115" s="1">
+        <v>7.5994411311533403</v>
+      </c>
+      <c r="H115" s="1">
         <v>0</v>
       </c>
-      <c r="G115" s="1">
+      <c r="I115" s="1">
         <v>4749.8860000000004</v>
       </c>
-      <c r="H115" s="1">
+      <c r="J115" s="1">
         <v>3816.6993000000002</v>
       </c>
-      <c r="I115" s="1">
-        <v>0.95719616900514404</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K115" s="1">
+        <v>0.92968306421729496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
@@ -4121,19 +4817,25 @@
         <v>14.149800000000001</v>
       </c>
       <c r="F116" s="1">
+        <v>1.92578566074371</v>
+      </c>
+      <c r="G116" s="1">
+        <v>7.3475364168892101</v>
+      </c>
+      <c r="H116" s="1">
         <v>0</v>
       </c>
-      <c r="G116" s="1">
+      <c r="I116" s="1">
         <v>4840.8289999999997</v>
       </c>
-      <c r="H116" s="1">
+      <c r="J116" s="1">
         <v>3366.5358999999999</v>
       </c>
-      <c r="I116" s="1">
-        <v>0.92993523146828205</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K116" s="1">
+        <v>0.88597439228797203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
@@ -4150,19 +4852,25 @@
         <v>12.098100000000001</v>
       </c>
       <c r="F117" s="1">
+        <v>1.62126648426055</v>
+      </c>
+      <c r="G117" s="1">
+        <v>7.4809611557032802</v>
+      </c>
+      <c r="H117" s="1">
         <v>0</v>
       </c>
-      <c r="G117" s="1">
+      <c r="I117" s="1">
         <v>4472.9975999999997</v>
       </c>
-      <c r="H117" s="1">
+      <c r="J117" s="1">
         <v>3202.9475000000002</v>
       </c>
-      <c r="I117" s="1">
-        <v>0.93538463340551103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K117" s="1">
+        <v>0.89464427057358697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
@@ -4179,19 +4887,25 @@
         <v>11.596299999999999</v>
       </c>
       <c r="F118" s="1">
+        <v>1.5555000305175699</v>
+      </c>
+      <c r="G118" s="1">
+        <v>7.4738409377950497</v>
+      </c>
+      <c r="H118" s="1">
         <v>1</v>
       </c>
-      <c r="G118" s="1">
+      <c r="I118" s="1">
         <v>3816.6993000000002</v>
       </c>
-      <c r="H118" s="1">
+      <c r="J118" s="1">
         <v>3534.0787999999998</v>
       </c>
-      <c r="I118" s="1">
-        <v>0.98473110587563195</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K118" s="1">
+        <v>0.97468158572943897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
@@ -4208,19 +4922,25 @@
         <v>13.0007</v>
       </c>
       <c r="F119" s="1">
+        <v>1.6726535558700499</v>
+      </c>
+      <c r="G119" s="1">
+        <v>7.7599823536559596</v>
+      </c>
+      <c r="H119" s="1">
         <v>1</v>
       </c>
-      <c r="G119" s="1">
+      <c r="I119" s="1">
         <v>3366.5358999999999</v>
       </c>
-      <c r="H119" s="1">
+      <c r="J119" s="1">
         <v>3566.4122000000002</v>
       </c>
-      <c r="I119" s="1">
-        <v>1.01160194885962</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K119" s="1">
+        <v>1.0194112660796399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -4237,19 +4957,25 @@
         <v>13.096</v>
       </c>
       <c r="F120" s="1">
+        <v>1.6678661108016899</v>
+      </c>
+      <c r="G120" s="1">
+        <v>7.8519559076053804</v>
+      </c>
+      <c r="H120" s="1">
         <v>2</v>
       </c>
-      <c r="G120" s="1">
+      <c r="I120" s="1">
         <v>3202.9475000000002</v>
       </c>
-      <c r="H120" s="1">
+      <c r="J120" s="1">
         <v>3731.0047</v>
       </c>
-      <c r="I120" s="1">
-        <v>1.03099176217194</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K120" s="1">
+        <v>1.05218472335983</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
@@ -4266,19 +4992,25 @@
         <v>13.6746</v>
       </c>
       <c r="F121" s="1">
+        <v>1.7408597469329801</v>
+      </c>
+      <c r="G121" s="1">
+        <v>7.8550813201592202</v>
+      </c>
+      <c r="H121" s="1">
         <v>0</v>
       </c>
-      <c r="G121" s="1">
+      <c r="I121" s="1">
         <v>3534.0787999999998</v>
       </c>
-      <c r="H121" s="1">
+      <c r="J121" s="1">
         <v>2946.0902000000001</v>
       </c>
-      <c r="I121" s="1">
-        <v>0.96425957958185804</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K121" s="1">
+        <v>0.94114513918167597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
@@ -4295,19 +5027,25 @@
         <v>11.0275</v>
       </c>
       <c r="F122" s="1">
+        <v>1.38924968242645</v>
+      </c>
+      <c r="G122" s="1">
+        <v>7.90735576187517</v>
+      </c>
+      <c r="H122" s="1">
         <v>0</v>
       </c>
-      <c r="G122" s="1">
+      <c r="I122" s="1">
         <v>3566.4122000000002</v>
       </c>
-      <c r="H122" s="1">
+      <c r="J122" s="1">
         <v>2877.4666000000002</v>
       </c>
-      <c r="I122" s="1">
-        <v>0.95797847491008603</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K122" s="1">
+        <v>0.93094977542653501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
@@ -4324,19 +5062,25 @@
         <v>10.7828</v>
       </c>
       <c r="F123" s="1">
-        <v>1</v>
+        <v>1.35452461242675</v>
       </c>
       <c r="G123" s="1">
+        <v>7.9605448623621902</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
         <v>3731.0047</v>
       </c>
-      <c r="H123" s="1">
+      <c r="J123" s="1">
         <v>3218.0879</v>
       </c>
-      <c r="I123" s="1">
-        <v>0.97085511096666599</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K123" s="1">
+        <v>0.95189863069924396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
@@ -4353,19 +5097,25 @@
         <v>11.891500000000001</v>
       </c>
       <c r="F124" s="1">
+        <v>1.4676095247268599</v>
+      </c>
+      <c r="G124" s="1">
+        <v>8.1026655319818097</v>
+      </c>
+      <c r="H124" s="1">
         <v>1</v>
       </c>
-      <c r="G124" s="1">
+      <c r="I124" s="1">
         <v>2946.0902000000001</v>
       </c>
-      <c r="H124" s="1">
+      <c r="J124" s="1">
         <v>3156.7451000000001</v>
       </c>
-      <c r="I124" s="1">
-        <v>1.0139083393345301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K124" s="1">
+        <v>1.0232878679689501</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -4382,19 +5132,25 @@
         <v>11.936500000000001</v>
       </c>
       <c r="F125" s="1">
-        <v>1</v>
+        <v>1.39992332458496</v>
       </c>
       <c r="G125" s="1">
+        <v>8.5273671833593792</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1">
         <v>2877.4666000000002</v>
       </c>
-      <c r="H125" s="1">
+      <c r="J125" s="1">
         <v>3169.5598</v>
       </c>
-      <c r="I125" s="1">
-        <v>1.01952465272213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K125" s="1">
+        <v>1.0327524158668999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
@@ -4411,19 +5167,25 @@
         <v>11.987</v>
       </c>
       <c r="F126" s="1">
+        <v>1.39229047298431</v>
+      </c>
+      <c r="G126" s="1">
+        <v>8.6095358323417699</v>
+      </c>
+      <c r="H126" s="1">
         <v>1</v>
       </c>
-      <c r="G126" s="1">
+      <c r="I126" s="1">
         <v>3218.0879</v>
       </c>
-      <c r="H126" s="1">
+      <c r="J126" s="1">
         <v>3153.9209999999998</v>
       </c>
-      <c r="I126" s="1">
-        <v>0.99597991772627603</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K126" s="1">
+        <v>0.99330884526042396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
@@ -4440,19 +5202,25 @@
         <v>11.984</v>
       </c>
       <c r="F127" s="1">
+        <v>1.41306853294372</v>
+      </c>
+      <c r="G127" s="1">
+        <v>8.4808235891003605</v>
+      </c>
+      <c r="H127" s="1">
         <v>1</v>
       </c>
-      <c r="G127" s="1">
+      <c r="I127" s="1">
         <v>3156.7451000000001</v>
       </c>
-      <c r="H127" s="1">
+      <c r="J127" s="1">
         <v>3203.9304000000002</v>
       </c>
-      <c r="I127" s="1">
-        <v>1.0029717751985301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K127" s="1">
+        <v>1.00495786340566</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
     </row>
   </sheetData>
